--- a/Plano de Testes/Tests Cycles QAlity Jira/Ciclo de Teste para Cinema App API - Testes automatizados.xlsx
+++ b/Plano de Testes/Tests Cycles QAlity Jira/Ciclo de Teste para Cinema App API - Testes automatizados.xlsx
@@ -1,41 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raiqu\Desktop\Nero\Estágio\Challenge Final\Challenge Final\Plano de Testes\Tests Cycles QAlity Jira\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1453A-8A31-4F03-8DCC-8C9DE054BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Test Cycle</t>
+  </si>
+  <si>
+    <t>Created On</t>
+  </si>
+  <si>
+    <t>Execution Assignee</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>CDTPCAA-34 ID: SESSIONS-BE-006</t>
+  </si>
+  <si>
+    <t>Ciclo de Teste para testes automatizados do Cinema App API</t>
+  </si>
+  <si>
+    <t>01/Jul/2025</t>
+  </si>
+  <si>
+    <t>Raique Alfredo Pereira de Ramos</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>CDTPCAA-44 ID: RESERVATIONS-BE-009</t>
+  </si>
+  <si>
+    <t>30/Jun/2025</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>CDTPCAA-42 ID: RESERVATIONS-BE-007</t>
+  </si>
+  <si>
+    <t>CDTPCAA-39 ID: RESERVATIONS-BE-004</t>
+  </si>
+  <si>
+    <t>CDTPCAA-31 ID: SESSIONS-BE-003</t>
+  </si>
+  <si>
+    <t>CDTPCAA-27 ID: THEATERS-BE-006</t>
+  </si>
+  <si>
+    <t>CDTPCAA-24 ID: THEATERS-BE-003</t>
+  </si>
+  <si>
+    <t>CDTPCAA-19 ID: MOVIE-BE-006</t>
+  </si>
+  <si>
+    <t>CDTPCAA-15 ID: MOVIE-BE-002</t>
+  </si>
+  <si>
+    <t>CDTPCAA-11 ID: USER-BE-003</t>
+  </si>
+  <si>
+    <t>CDTPCAA-10 ID: USER-BE-002</t>
+  </si>
+  <si>
+    <t>CDTPCAA-7 ID: AUTH-BE-007</t>
+  </si>
+  <si>
+    <t>CDTPCAA-6 ID: AUTH-BE-006</t>
+  </si>
+  <si>
+    <t>CDTPCAA-2 ID: AUTH-BE-002</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,16 +110,108 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="5" tint="0.39994506668294322"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF129E33"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -60,18 +219,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Cálculo" xfId="3" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="4" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1CCA4A"/>
+      <color rgb="FF129E33"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,270 +627,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Test Case</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Test Cycle</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Created On</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Execution Assignee</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Test Result</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>CDTPCAA-34 ID: SESSIONS-BE-006</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C2" t="str">
-        <v>01/Jul/2025</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>CDTPCAA-44 ID: RESERVATIONS-BE-009</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C3" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Failed</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>CDTPCAA-42 ID: RESERVATIONS-BE-007</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C4" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>CDTPCAA-39 ID: RESERVATIONS-BE-004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C5" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>CDTPCAA-31 ID: SESSIONS-BE-003</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C6" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>CDTPCAA-27 ID: THEATERS-BE-006</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C7" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>CDTPCAA-24 ID: THEATERS-BE-003</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C8" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>CDTPCAA-19 ID: MOVIE-BE-006</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C9" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>CDTPCAA-15 ID: MOVIE-BE-002</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C10" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>CDTPCAA-11 ID: USER-BE-003</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C11" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>CDTPCAA-10 ID: USER-BE-002</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C12" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>CDTPCAA-7 ID: AUTH-BE-007</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C13" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>CDTPCAA-6 ID: AUTH-BE-006</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C14" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>CDTPCAA-2 ID: AUTH-BE-002</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Ciclo de Teste para testes automatizados do Cinema App API</v>
-      </c>
-      <c r="C15" t="str">
-        <v>30/Jun/2025</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Raique Alfredo Pereira de Ramos</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Passed</v>
-      </c>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="23" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
+    <ignoredError sqref="A1:E1 A2:D15" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63675564-E43B-4D0F-B775-84952D6EF6D5}">
+          <x14:formula1>
+            <xm:f>Planilha1!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10C9146-0FE8-4335-8838-366B676BC044}">
+  <dimension ref="E2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>